--- a/OC-Day7-内存管理/C语言内存管理.xlsx
+++ b/OC-Day7-内存管理/C语言内存管理.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>代码区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,46 @@
   </si>
   <si>
     <t>e1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">roundButton </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配内存，+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在这里也希望能够用 roundButton</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +222,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -253,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,12 +647,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,7 +737,9 @@
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
@@ -698,41 +748,51 @@
       <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
